--- a/StructureDefinition-pmiresearch-pairing-organization.xlsx
+++ b/StructureDefinition-pmiresearch-pairing-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:30:00+00:00</t>
+    <t>2022-03-29T01:42:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-pmiresearch-pairing-organization.xlsx
+++ b/StructureDefinition-pmiresearch-pairing-organization.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-29T01:42:38+00:00</t>
+    <t>2022-03-29T02:49:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
